--- a/19_routineData.xlsx
+++ b/19_routineData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_project\back_end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika Tabassum\Desktop\blinkproject_new\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B4440-533E-4F01-AB90-F94634D0DC7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A3548-5F6F-489F-9E7B-A54207BBE785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Routine Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
   <si>
     <t>batch</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>00:55</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Microwave</t>
   </si>
 </sst>
 </file>
@@ -134,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -477,16 +486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.796875" style="1"/>
+    <col min="3" max="4" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -520,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -537,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -554,7 +563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -571,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -579,16 +588,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -605,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -622,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -639,7 +648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -656,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -673,7 +682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -690,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -707,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -724,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -741,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -758,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -775,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -792,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -809,7 +818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -826,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -843,7 +852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -860,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -877,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -894,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -911,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -925,14 +934,14 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A14:E26 A13:B13 E13 A3:E12 A2:B2 E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A14:E25 A13:B13 E13 A3:E5 A2:B2 E2 A7:E12 A6:B6 E6 A26:D26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>